--- a/biology/Médecine/Roland_Kuhn/Roland_Kuhn.xlsx
+++ b/biology/Médecine/Roland_Kuhn/Roland_Kuhn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roland Kuhn est un psychiatre suisse né à Bienne, dans le canton de Berne, le 4 mars 1912 et mort le 10 octobre 2005 à Scherzingen, dans le canton de Thurgovie.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Roland Kuhn naît à Bienne, dans le canton de Berne, le 4 mars 1912[1]. Il est le fils d'Ernst Kuhn, éditeur et libraire, et d'Alice Schneider[2]. Il fait des études de médecine à Berne et Paris et obtient son diplôme de médecin en 1937[1], puis il est assistant à la clinique psychiatrique universitaire de la Waldau à Berne (1937-1939)[2]. Il épouse la psychiatre Verena Gebhart[2]. Il est nommé en 1939 à l'hôpital psychiatrique de Münsterlingen, dans le canton suisse de Thurgovie, sur la rive sud du lac de Constance[1]. Il dirige l'hôpital de 1971 à 1980, puis exerce en libéral à Scherzingen, près de Münsterlingen[2]. 
-Il obtient une habilitation universitaire en 1957[2] et enseigne à l'université de Zurich de 1957 à 1983[1]. Il est nommé professeur titulaire en 1966[2]. 
-Il est considéré comme un pionnier de la recherche sur le test de Rorschach. Il découvre en 1957 l'effet de l'imipramine, un anti-antidépresseur variante de la chlorpromazine, sur les personnes atteintes de schizophrénie[1]. Les résultats de ses recherches sont publiés en 1957 par le Journal Suisse de Médecine[1].
-Il meurt le 10 octobre 2005 à Scherzingen, localité de la commune de Münsterlingen dans le canton de Thurgovie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roland Kuhn naît à Bienne, dans le canton de Berne, le 4 mars 1912. Il est le fils d'Ernst Kuhn, éditeur et libraire, et d'Alice Schneider. Il fait des études de médecine à Berne et Paris et obtient son diplôme de médecin en 1937, puis il est assistant à la clinique psychiatrique universitaire de la Waldau à Berne (1937-1939). Il épouse la psychiatre Verena Gebhart. Il est nommé en 1939 à l'hôpital psychiatrique de Münsterlingen, dans le canton suisse de Thurgovie, sur la rive sud du lac de Constance. Il dirige l'hôpital de 1971 à 1980, puis exerce en libéral à Scherzingen, près de Münsterlingen. 
+Il obtient une habilitation universitaire en 1957 et enseigne à l'université de Zurich de 1957 à 1983. Il est nommé professeur titulaire en 1966. 
+Il est considéré comme un pionnier de la recherche sur le test de Rorschach. Il découvre en 1957 l'effet de l'imipramine, un anti-antidépresseur variante de la chlorpromazine, sur les personnes atteintes de schizophrénie. Les résultats de ses recherches sont publiés en 1957 par le Journal Suisse de Médecine.
+Il meurt le 10 octobre 2005 à Scherzingen, localité de la commune de Münsterlingen dans le canton de Thurgovie.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Expérimentations cliniques sur des patients</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En collaboration avec des sociétés pharmaceutiques, une soixantaine de médicaments, dont certains en étaient encore au stade des essais, ont été administrés, souvent à leur insu, à de nombreux patients — au moins 3 000 personnes sont identifiées — de l'hôpital psychiatrique de Münsterlingen[3], de 1946 à 1980[4]. Selon l'historienne suisse Marietta Meier, qui a dirigé l'enquête demandée par le canton de Thurgovie et qui sert de base à l'ouvrage Testfall Münsterlingen: Klinische Versuche in der Psychiatrie, 1940-1980, 36 patients sont morts durant ces expériences[4],[5] pour lesquelles Roland Kuhn a été rémunéré par les laboratoires[3],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En collaboration avec des sociétés pharmaceutiques, une soixantaine de médicaments, dont certains en étaient encore au stade des essais, ont été administrés, souvent à leur insu, à de nombreux patients — au moins 3 000 personnes sont identifiées — de l'hôpital psychiatrique de Münsterlingen, de 1946 à 1980. Selon l'historienne suisse Marietta Meier, qui a dirigé l'enquête demandée par le canton de Thurgovie et qui sert de base à l'ouvrage Testfall Münsterlingen: Klinische Versuche in der Psychiatrie, 1940-1980, 36 patients sont morts durant ces expériences, pour lesquelles Roland Kuhn a été rémunéré par les laboratoires,.
 </t>
         </is>
       </c>
@@ -576,11 +592,13 @@
           <t>Hommages et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Deux symposia sont organisés en son honneur, en 1992 et en 2002 à Münsterlingen[1].
-Docteur honoris causa de l'UCLouvain, de l'université de Bâle et de la Faculté des sciences de Paris[1].
-Médaille Hans-Prinzhorn (2004)[2]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Deux symposia sont organisés en son honneur, en 1992 et en 2002 à Münsterlingen.
+Docteur honoris causa de l'UCLouvain, de l'université de Bâle et de la Faculté des sciences de Paris.
+Médaille Hans-Prinzhorn (2004)</t>
         </is>
       </c>
     </row>
